--- a/documentation/api_status.xlsx
+++ b/documentation/api_status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\post\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bass\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715F20E0-80A4-427E-AED8-2C128DC57ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738DF91F-D3C0-49AA-8FED-5035DFAEBA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7A7340C-22E6-4EF7-B032-2CDAB0C7DE14}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="107">
   <si>
     <t>Sl.No</t>
   </si>
@@ -328,6 +328,24 @@
   </si>
   <si>
     <t>http://localhost/post/initialquote</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MODIFICATION</t>
+  </si>
+  <si>
+    <t>Added rtid</t>
+  </si>
+  <si>
+    <t>Added vcode</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>rtocode</t>
   </si>
 </sst>
 </file>
@@ -406,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -429,12 +447,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,9 +478,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,15 +487,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -785,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B658B30-3C7C-40AB-9220-2BBEE449DA3D}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,26 +831,34 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="71.33203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="71.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -830,11 +872,13 @@
       <c r="E2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -848,15 +892,17 @@
       <c r="E3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -868,13 +914,19 @@
       <c r="E4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="G4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -884,13 +936,15 @@
       <c r="E5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
@@ -900,13 +954,15 @@
       <c r="E6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
@@ -916,13 +972,15 @@
       <c r="E7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
@@ -932,13 +990,15 @@
       <c r="E8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,15 +1008,21 @@
       <c r="E9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="G9" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
         <v>4</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -968,13 +1034,15 @@
       <c r="E10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -984,13 +1052,15 @@
       <c r="E11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1000,13 +1070,19 @@
       <c r="E12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="G12" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1016,13 +1092,15 @@
       <c r="E13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1032,13 +1110,15 @@
       <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1048,13 +1128,15 @@
       <c r="E15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1064,13 +1146,19 @@
       <c r="E16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="G16" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1080,11 +1168,13 @@
       <c r="E17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1100,11 +1190,13 @@
       <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -1120,15 +1212,17 @@
       <c r="E19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>7</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
+        <v>7</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1140,13 +1234,15 @@
       <c r="E20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
@@ -1156,11 +1252,13 @@
       <c r="E21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1174,15 +1272,17 @@
       <c r="E22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
         <v>9</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1194,13 +1294,15 @@
       <c r="E23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1210,13 +1312,15 @@
       <c r="E24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1226,13 +1330,15 @@
       <c r="E25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1242,13 +1348,15 @@
       <c r="E26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1258,13 +1366,15 @@
       <c r="E27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
@@ -1274,13 +1384,15 @@
       <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1290,13 +1402,15 @@
       <c r="E29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1306,13 +1420,15 @@
       <c r="E30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1322,13 +1438,15 @@
       <c r="E31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1338,13 +1456,15 @@
       <c r="E32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1354,11 +1474,13 @@
       <c r="E33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>10</v>
       </c>
@@ -1372,11 +1494,13 @@
       <c r="E34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>11</v>
       </c>
@@ -1390,11 +1514,13 @@
       <c r="E35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>12</v>
       </c>
@@ -1408,11 +1534,13 @@
       <c r="E36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>13</v>
       </c>
@@ -1426,15 +1554,17 @@
       <c r="E37" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="15">
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
         <v>14</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1446,13 +1576,15 @@
       <c r="E38" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1462,13 +1594,15 @@
       <c r="E39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1478,15 +1612,17 @@
       <c r="E40" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="15">
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
         <v>15</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1495,12 +1631,14 @@
       <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1510,11 +1648,13 @@
       <c r="E42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>16</v>
       </c>
@@ -1528,11 +1668,13 @@
       <c r="E43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>17</v>
       </c>
@@ -1546,11 +1688,13 @@
       <c r="E44" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>18</v>
       </c>
@@ -1564,11 +1708,13 @@
       <c r="E45" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>19</v>
       </c>
@@ -1582,11 +1728,13 @@
       <c r="E46" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>20</v>
       </c>
@@ -1600,11 +1748,13 @@
       <c r="E47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>21</v>
       </c>
@@ -1618,17 +1768,19 @@
       <c r="E48" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="8" t="s">
         <v>99</v>
       </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="18"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
